--- a/Epsilon Constraint/resultados/resultados P 5 E 0.2_0.6.xlsx
+++ b/Epsilon Constraint/resultados/resultados P 5 E 0.2_0.6.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelf\Documents\GitHub\PLS-tesis\Epsilon Constraint\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A97AC-E03B-4133-BDBA-7C6E5F68CDB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" activeTab="8" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="centro 1" sheetId="1" r:id="rId1"/>
-    <sheet name="centro 2" r:id="rId5" sheetId="2"/>
+    <sheet name="centro 2" sheetId="2" r:id="rId2"/>
+    <sheet name="centro 3" sheetId="3" r:id="rId3"/>
+    <sheet name="centro 4" sheetId="4" r:id="rId4"/>
+    <sheet name="centro 5" sheetId="5" r:id="rId5"/>
+    <sheet name="centro 6" sheetId="6" r:id="rId6"/>
+    <sheet name="centro 7" sheetId="7" r:id="rId7"/>
+    <sheet name="centro 8" sheetId="8" r:id="rId8"/>
+    <sheet name="centro 9" sheetId="9" r:id="rId9"/>
+    <sheet name="centro 10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="10">
   <si>
     <t>Exp 1</t>
   </si>
@@ -44,6 +52,18 @@
   </si>
   <si>
     <t>Exp 2</t>
+  </si>
+  <si>
+    <t>Exp 3</t>
+  </si>
+  <si>
+    <t>Exp 4</t>
+  </si>
+  <si>
+    <t>Exp 5</t>
+  </si>
+  <si>
+    <t>dominado</t>
   </si>
 </sst>
 </file>
@@ -394,19 +414,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B8A15-616D-42B3-999D-23F13F28DDDC}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -414,161 +434,769 @@
         <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>326713.0</v>
+        <v>363315</v>
       </c>
       <c r="C3">
-        <v>327036.0</v>
+        <v>342119</v>
       </c>
       <c r="D3">
-        <v>327529.0</v>
+        <v>335073</v>
       </c>
       <c r="E3">
-        <v>328315.0</v>
+        <v>331696</v>
       </c>
       <c r="F3">
-        <v>329608.0</v>
+        <v>329477</v>
       </c>
       <c r="G3">
-        <v>331548.0</v>
+        <v>327843</v>
       </c>
       <c r="H3">
-        <v>334392.0</v>
+        <v>326902</v>
       </c>
       <c r="I3">
-        <v>340674.0</v>
+        <v>326171</v>
       </c>
       <c r="J3">
-        <v>362210.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>325792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.21578925925925924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.21589259259259258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>252.7488281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>289.77867219900003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
         <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E8">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G8">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H8">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I8">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="J8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>302722.0</v>
+        <v>363467</v>
       </c>
       <c r="C9">
-        <v>302927.0</v>
+        <v>343341</v>
       </c>
       <c r="D9">
-        <v>303077.0</v>
+        <v>337298</v>
       </c>
       <c r="E9">
-        <v>303705.0</v>
+        <v>333949</v>
       </c>
       <c r="F9">
-        <v>305189.0</v>
+        <v>332002</v>
       </c>
       <c r="G9">
-        <v>307689.0</v>
+        <v>329785</v>
       </c>
       <c r="H9">
-        <v>311149.0</v>
+        <v>328678</v>
       </c>
       <c r="I9">
-        <v>318511.0</v>
+        <v>327829</v>
       </c>
       <c r="J9">
-        <v>340166.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>327213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.25965611111111114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0.21281944444444442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11">
-        <v>825.832597801</v>
+        <v>373.26454819899999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>355669</v>
+      </c>
+      <c r="C15">
+        <v>329076</v>
+      </c>
+      <c r="D15">
+        <v>318000</v>
+      </c>
+      <c r="E15">
+        <v>311489</v>
+      </c>
+      <c r="F15">
+        <v>307731</v>
+      </c>
+      <c r="G15">
+        <v>305721</v>
+      </c>
+      <c r="H15">
+        <v>304847</v>
+      </c>
+      <c r="I15">
+        <v>304696</v>
+      </c>
+      <c r="J15">
+        <v>304544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.25068203703703701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1039.849317701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>352363</v>
+      </c>
+      <c r="C21">
+        <v>330727</v>
+      </c>
+      <c r="D21">
+        <v>322935</v>
+      </c>
+      <c r="E21">
+        <v>318937</v>
+      </c>
+      <c r="F21">
+        <v>315893</v>
+      </c>
+      <c r="G21">
+        <v>313792</v>
+      </c>
+      <c r="H21">
+        <v>312943</v>
+      </c>
+      <c r="I21">
+        <v>312773</v>
+      </c>
+      <c r="J21">
+        <v>312604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.23970907407407407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>364.20284010099999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.6</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
+      </c>
+      <c r="H26">
+        <v>0.8</v>
+      </c>
+      <c r="I26">
+        <v>0.9</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>358747</v>
+      </c>
+      <c r="C27">
+        <v>336550</v>
+      </c>
+      <c r="D27">
+        <v>326577</v>
+      </c>
+      <c r="E27">
+        <v>320917</v>
+      </c>
+      <c r="F27">
+        <v>317882</v>
+      </c>
+      <c r="G27">
+        <v>315624</v>
+      </c>
+      <c r="H27">
+        <v>314423</v>
+      </c>
+      <c r="I27">
+        <v>313821</v>
+      </c>
+      <c r="J27">
+        <v>313135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.23503499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>536.87526299900003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02377F92-6215-4EEF-9B8F-C7DD857AA28A}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>0.8</v>
+      </c>
+      <c r="I2">
+        <v>0.9</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>353116</v>
+      </c>
+      <c r="C3">
+        <v>325216</v>
+      </c>
+      <c r="D3">
+        <v>311998</v>
+      </c>
+      <c r="E3">
+        <v>307159</v>
+      </c>
+      <c r="F3">
+        <v>304042</v>
+      </c>
+      <c r="G3">
+        <v>301448</v>
+      </c>
+      <c r="H3">
+        <v>300190</v>
+      </c>
+      <c r="I3">
+        <v>299711</v>
+      </c>
+      <c r="J3">
+        <v>299245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.25900555555555554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>441.59467210000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>338893</v>
+      </c>
+      <c r="C9">
+        <v>311680</v>
+      </c>
+      <c r="D9">
+        <v>301197</v>
+      </c>
+      <c r="E9">
+        <v>296739</v>
+      </c>
+      <c r="F9">
+        <v>293759</v>
+      </c>
+      <c r="G9">
+        <v>292032</v>
+      </c>
+      <c r="H9">
+        <v>290833</v>
+      </c>
+      <c r="I9">
+        <v>289924</v>
+      </c>
+      <c r="J9">
+        <v>289239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.27897499999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>529.42861260100005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>351029</v>
+      </c>
+      <c r="C15">
+        <v>317396</v>
+      </c>
+      <c r="D15">
+        <v>308576</v>
+      </c>
+      <c r="E15">
+        <v>304086</v>
+      </c>
+      <c r="F15">
+        <v>301259</v>
+      </c>
+      <c r="G15">
+        <v>299445</v>
+      </c>
+      <c r="H15">
+        <v>297646</v>
+      </c>
+      <c r="I15">
+        <v>297206</v>
+      </c>
+      <c r="J15">
+        <v>295988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.26507055555555553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>764.31280779999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>363259</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>321277</v>
+      </c>
+      <c r="E21">
+        <v>315489</v>
+      </c>
+      <c r="F21">
+        <v>311959</v>
+      </c>
+      <c r="G21">
+        <v>309248</v>
+      </c>
+      <c r="H21">
+        <v>307438</v>
+      </c>
+      <c r="I21">
+        <v>306680</v>
+      </c>
+      <c r="J21">
+        <v>305772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.23886055555555555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>291.4579804</v>
       </c>
     </row>
   </sheetData>
@@ -577,19 +1205,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8937E41-B914-4CA1-9A2F-E5B1D2B5B337}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -597,161 +1225,3482 @@
         <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>292338.0</v>
+        <v>346586</v>
       </c>
       <c r="C3">
-        <v>293089.0</v>
+        <v>323437</v>
       </c>
       <c r="D3">
-        <v>294073.0</v>
+        <v>314968</v>
       </c>
       <c r="E3">
-        <v>295466.0</v>
+        <v>312924</v>
       </c>
       <c r="F3">
-        <v>296692.0</v>
+        <v>311711</v>
       </c>
       <c r="G3">
-        <v>298922.0</v>
+        <v>311131</v>
       </c>
       <c r="H3">
-        <v>302951.0</v>
+        <v>310606</v>
       </c>
       <c r="I3">
-        <v>310762.0</v>
+        <v>310544</v>
       </c>
       <c r="J3">
-        <v>334313.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>310323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.27575111111111106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.24767537037037035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1320.1658105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>365.43262759999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
         <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E8">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G8">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H8">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I8">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="J8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>301547.0</v>
+        <v>342700</v>
       </c>
       <c r="C9">
-        <v>301547.0</v>
+        <v>319994</v>
       </c>
       <c r="D9">
-        <v>301727.0</v>
+        <v>312628</v>
       </c>
       <c r="E9">
-        <v>302207.0</v>
+        <v>310449</v>
       </c>
       <c r="F9">
-        <v>303153.0</v>
+        <v>309012</v>
       </c>
       <c r="G9">
-        <v>304600.0</v>
+        <v>308181</v>
       </c>
       <c r="H9">
-        <v>307119.0</v>
+        <v>307582</v>
       </c>
       <c r="I9">
-        <v>315511.0</v>
+        <v>307144</v>
       </c>
       <c r="J9">
-        <v>339327.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>307144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.26328055555555563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0.2533374074074074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11">
-        <v>696.5433539</v>
+        <v>198.75113130099999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>336365</v>
+      </c>
+      <c r="C15">
+        <v>309422</v>
+      </c>
+      <c r="D15">
+        <v>297148</v>
+      </c>
+      <c r="E15">
+        <v>293819</v>
+      </c>
+      <c r="F15">
+        <v>292867</v>
+      </c>
+      <c r="G15">
+        <v>292187</v>
+      </c>
+      <c r="H15">
+        <v>291919</v>
+      </c>
+      <c r="I15">
+        <v>291919</v>
+      </c>
+      <c r="J15">
+        <v>291919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.27972518518518513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>875.73747760000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>332973</v>
+      </c>
+      <c r="C21">
+        <v>306967</v>
+      </c>
+      <c r="D21">
+        <v>298412</v>
+      </c>
+      <c r="E21">
+        <v>294668</v>
+      </c>
+      <c r="F21">
+        <v>292131</v>
+      </c>
+      <c r="G21">
+        <v>290560</v>
+      </c>
+      <c r="H21">
+        <v>289421</v>
+      </c>
+      <c r="I21">
+        <v>288940</v>
+      </c>
+      <c r="J21">
+        <v>288499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.28313518518518521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>755.23037020000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.6</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
+      </c>
+      <c r="H26">
+        <v>0.8</v>
+      </c>
+      <c r="I26">
+        <v>0.9</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>337462</v>
+      </c>
+      <c r="C27">
+        <v>313227</v>
+      </c>
+      <c r="D27">
+        <v>303095</v>
+      </c>
+      <c r="E27">
+        <v>300741</v>
+      </c>
+      <c r="F27">
+        <v>298959</v>
+      </c>
+      <c r="G27">
+        <v>297984</v>
+      </c>
+      <c r="H27">
+        <v>297204</v>
+      </c>
+      <c r="I27">
+        <v>296665</v>
+      </c>
+      <c r="J27">
+        <v>296665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.27061722222222218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>476.45223289900002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F53459-F05B-4F49-A61E-CFB4AA6FC1D3}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>0.8</v>
+      </c>
+      <c r="I2">
+        <v>0.9</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>346584</v>
+      </c>
+      <c r="C3">
+        <v>321588</v>
+      </c>
+      <c r="D3">
+        <v>312250</v>
+      </c>
+      <c r="E3">
+        <v>307980</v>
+      </c>
+      <c r="F3">
+        <v>306036</v>
+      </c>
+      <c r="G3">
+        <v>304173</v>
+      </c>
+      <c r="H3">
+        <v>303186</v>
+      </c>
+      <c r="I3">
+        <v>302309</v>
+      </c>
+      <c r="J3">
+        <v>301447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.25796296296296295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>569.50417909999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>354126</v>
+      </c>
+      <c r="C9">
+        <v>327573</v>
+      </c>
+      <c r="D9">
+        <v>317817</v>
+      </c>
+      <c r="E9">
+        <v>313816</v>
+      </c>
+      <c r="F9">
+        <v>311492</v>
+      </c>
+      <c r="G9">
+        <v>309638</v>
+      </c>
+      <c r="H9">
+        <v>308662</v>
+      </c>
+      <c r="I9">
+        <v>308195</v>
+      </c>
+      <c r="J9">
+        <v>307818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.24686018518518518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>282.092037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>351914</v>
+      </c>
+      <c r="C15">
+        <v>322167</v>
+      </c>
+      <c r="D15">
+        <v>313717</v>
+      </c>
+      <c r="E15">
+        <v>310398</v>
+      </c>
+      <c r="F15">
+        <v>308248</v>
+      </c>
+      <c r="G15">
+        <v>306977</v>
+      </c>
+      <c r="H15">
+        <v>306352</v>
+      </c>
+      <c r="I15">
+        <v>306084</v>
+      </c>
+      <c r="J15">
+        <v>305390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.25247462962962963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>761.22894979900002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>365614</v>
+      </c>
+      <c r="C21">
+        <v>337616</v>
+      </c>
+      <c r="D21">
+        <v>328584</v>
+      </c>
+      <c r="E21">
+        <v>325920</v>
+      </c>
+      <c r="F21">
+        <v>324525</v>
+      </c>
+      <c r="G21">
+        <v>323330</v>
+      </c>
+      <c r="H21">
+        <v>322640</v>
+      </c>
+      <c r="I21">
+        <v>322301</v>
+      </c>
+      <c r="J21">
+        <v>321638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.22336925925925924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>178.8198692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.6</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
+      </c>
+      <c r="H26">
+        <v>0.8</v>
+      </c>
+      <c r="I26">
+        <v>0.9</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>356978</v>
+      </c>
+      <c r="C27">
+        <v>331054</v>
+      </c>
+      <c r="D27">
+        <v>320766</v>
+      </c>
+      <c r="E27">
+        <v>316957</v>
+      </c>
+      <c r="F27">
+        <v>314383</v>
+      </c>
+      <c r="G27">
+        <v>312723</v>
+      </c>
+      <c r="H27">
+        <v>311947</v>
+      </c>
+      <c r="I27">
+        <v>311290</v>
+      </c>
+      <c r="J27">
+        <v>310359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.24133037037037036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>530.20674699899996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F1F984-AAC3-4BF4-9269-329CEB36C499}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>0.8</v>
+      </c>
+      <c r="I2">
+        <v>0.9</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>343889</v>
+      </c>
+      <c r="C3">
+        <v>315014</v>
+      </c>
+      <c r="D3">
+        <v>305612</v>
+      </c>
+      <c r="E3">
+        <v>300438</v>
+      </c>
+      <c r="F3">
+        <v>296785</v>
+      </c>
+      <c r="G3">
+        <v>294367</v>
+      </c>
+      <c r="H3">
+        <v>292860</v>
+      </c>
+      <c r="I3">
+        <v>291067</v>
+      </c>
+      <c r="J3">
+        <v>290686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.2738140740740741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>233.04045670100001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>351143</v>
+      </c>
+      <c r="C9">
+        <v>322751</v>
+      </c>
+      <c r="D9">
+        <v>311854</v>
+      </c>
+      <c r="E9">
+        <v>306225</v>
+      </c>
+      <c r="F9">
+        <v>301758</v>
+      </c>
+      <c r="G9">
+        <v>298595</v>
+      </c>
+      <c r="H9">
+        <v>296541</v>
+      </c>
+      <c r="I9">
+        <v>294783</v>
+      </c>
+      <c r="J9">
+        <v>294385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.26436666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>473.69818330099997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>351916</v>
+      </c>
+      <c r="C15">
+        <v>323915</v>
+      </c>
+      <c r="D15">
+        <v>313496</v>
+      </c>
+      <c r="E15">
+        <v>307539</v>
+      </c>
+      <c r="F15">
+        <v>303030</v>
+      </c>
+      <c r="G15">
+        <v>299896</v>
+      </c>
+      <c r="H15">
+        <v>297949</v>
+      </c>
+      <c r="I15">
+        <v>295907</v>
+      </c>
+      <c r="J15">
+        <v>295450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.26212074074074071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>377.52403290000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>341453</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>301101</v>
+      </c>
+      <c r="E21">
+        <v>295719</v>
+      </c>
+      <c r="F21">
+        <v>292089</v>
+      </c>
+      <c r="G21">
+        <v>289962</v>
+      </c>
+      <c r="H21">
+        <v>288947</v>
+      </c>
+      <c r="I21">
+        <v>287360</v>
+      </c>
+      <c r="J21">
+        <v>287075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.27551222222222221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>431.3254025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.6</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
+      </c>
+      <c r="H26">
+        <v>0.8</v>
+      </c>
+      <c r="I26">
+        <v>0.9</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>346359</v>
+      </c>
+      <c r="C27">
+        <v>320728</v>
+      </c>
+      <c r="D27">
+        <v>310863</v>
+      </c>
+      <c r="E27">
+        <v>305009</v>
+      </c>
+      <c r="F27">
+        <v>300173</v>
+      </c>
+      <c r="G27">
+        <v>296957</v>
+      </c>
+      <c r="H27">
+        <v>294704</v>
+      </c>
+      <c r="I27">
+        <v>292551</v>
+      </c>
+      <c r="J27">
+        <v>292182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.26820222222222218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>578.49286610000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E20BA6-33B7-4233-808E-C45B4FD6A4C7}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>0.8</v>
+      </c>
+      <c r="I2">
+        <v>0.9</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>359103</v>
+      </c>
+      <c r="C3">
+        <v>333736</v>
+      </c>
+      <c r="D3">
+        <v>322391</v>
+      </c>
+      <c r="E3">
+        <v>316743</v>
+      </c>
+      <c r="F3">
+        <v>313714</v>
+      </c>
+      <c r="G3">
+        <v>311156</v>
+      </c>
+      <c r="H3">
+        <v>309290</v>
+      </c>
+      <c r="I3">
+        <v>308551</v>
+      </c>
+      <c r="J3">
+        <v>307810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.24253629629629631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>655.76827860000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>353168</v>
+      </c>
+      <c r="C9">
+        <v>327729</v>
+      </c>
+      <c r="D9">
+        <v>314684</v>
+      </c>
+      <c r="E9">
+        <v>309370</v>
+      </c>
+      <c r="F9">
+        <v>305467</v>
+      </c>
+      <c r="G9">
+        <v>303281</v>
+      </c>
+      <c r="H9">
+        <v>302080</v>
+      </c>
+      <c r="I9">
+        <v>301537</v>
+      </c>
+      <c r="J9">
+        <v>301038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.25566814814814814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1119.8016229990001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>355521</v>
+      </c>
+      <c r="C15">
+        <v>328127</v>
+      </c>
+      <c r="D15">
+        <v>315840</v>
+      </c>
+      <c r="E15">
+        <v>310378</v>
+      </c>
+      <c r="F15">
+        <v>306325</v>
+      </c>
+      <c r="G15">
+        <v>303856</v>
+      </c>
+      <c r="H15">
+        <v>302050</v>
+      </c>
+      <c r="I15">
+        <v>301229</v>
+      </c>
+      <c r="J15">
+        <v>300663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.25469407407407407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1834.6574566009999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>359321</v>
+      </c>
+      <c r="C21">
+        <v>332309</v>
+      </c>
+      <c r="D21">
+        <v>323021</v>
+      </c>
+      <c r="E21">
+        <v>316898</v>
+      </c>
+      <c r="F21">
+        <v>312468</v>
+      </c>
+      <c r="G21">
+        <v>309888</v>
+      </c>
+      <c r="H21">
+        <v>308329</v>
+      </c>
+      <c r="I21">
+        <v>307711</v>
+      </c>
+      <c r="J21">
+        <v>306516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.24389314814814814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>785.40777119899997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.6</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
+      </c>
+      <c r="H26">
+        <v>0.8</v>
+      </c>
+      <c r="I26">
+        <v>0.9</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>349005</v>
+      </c>
+      <c r="C27">
+        <v>318374</v>
+      </c>
+      <c r="D27">
+        <v>309171</v>
+      </c>
+      <c r="E27">
+        <v>304187</v>
+      </c>
+      <c r="F27">
+        <v>300973</v>
+      </c>
+      <c r="G27">
+        <v>298607</v>
+      </c>
+      <c r="H27">
+        <v>297736</v>
+      </c>
+      <c r="I27">
+        <v>296457</v>
+      </c>
+      <c r="J27">
+        <v>295012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.26582703703703703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1449.9364318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3752A80-03F4-4C52-847E-D32E55B4DCC4}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>0.8</v>
+      </c>
+      <c r="I2">
+        <v>0.9</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>348033</v>
+      </c>
+      <c r="C3">
+        <v>322635</v>
+      </c>
+      <c r="D3">
+        <v>311763</v>
+      </c>
+      <c r="E3">
+        <v>306770</v>
+      </c>
+      <c r="F3">
+        <v>303006</v>
+      </c>
+      <c r="G3">
+        <v>301271</v>
+      </c>
+      <c r="H3">
+        <v>299381</v>
+      </c>
+      <c r="I3">
+        <v>298056</v>
+      </c>
+      <c r="J3">
+        <v>297293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.26194425925925918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1915.7087294999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>353663</v>
+      </c>
+      <c r="C9">
+        <v>325087</v>
+      </c>
+      <c r="D9">
+        <v>315409</v>
+      </c>
+      <c r="E9">
+        <v>310131</v>
+      </c>
+      <c r="F9">
+        <v>306807</v>
+      </c>
+      <c r="G9">
+        <v>305761</v>
+      </c>
+      <c r="H9">
+        <v>304627</v>
+      </c>
+      <c r="I9">
+        <v>304162</v>
+      </c>
+      <c r="J9">
+        <v>303710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.25313574074074074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>520.93861630000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>344010</v>
+      </c>
+      <c r="C15">
+        <v>316495</v>
+      </c>
+      <c r="D15">
+        <v>305125</v>
+      </c>
+      <c r="E15">
+        <v>299863</v>
+      </c>
+      <c r="F15">
+        <v>296511</v>
+      </c>
+      <c r="G15">
+        <v>294189</v>
+      </c>
+      <c r="H15">
+        <v>292638</v>
+      </c>
+      <c r="I15">
+        <v>292185</v>
+      </c>
+      <c r="J15">
+        <v>291434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.27335481481481483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1037.3234786999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>350179</v>
+      </c>
+      <c r="C21">
+        <v>322493</v>
+      </c>
+      <c r="D21">
+        <v>313484</v>
+      </c>
+      <c r="E21">
+        <v>308573</v>
+      </c>
+      <c r="F21">
+        <v>305845</v>
+      </c>
+      <c r="G21">
+        <v>304629</v>
+      </c>
+      <c r="H21">
+        <v>303471</v>
+      </c>
+      <c r="I21">
+        <v>303193</v>
+      </c>
+      <c r="J21">
+        <v>302692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.25606462962962961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>796.1183327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.6</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
+      </c>
+      <c r="H26">
+        <v>0.8</v>
+      </c>
+      <c r="I26">
+        <v>0.9</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>351310</v>
+      </c>
+      <c r="C27">
+        <v>327115</v>
+      </c>
+      <c r="D27">
+        <v>317730</v>
+      </c>
+      <c r="E27">
+        <v>313089</v>
+      </c>
+      <c r="F27">
+        <v>310381</v>
+      </c>
+      <c r="G27">
+        <v>309445</v>
+      </c>
+      <c r="H27">
+        <v>308503</v>
+      </c>
+      <c r="I27">
+        <v>307271</v>
+      </c>
+      <c r="J27">
+        <v>307065</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.24833814814814811</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1250.6247639000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C69B644-87A0-4D00-8912-08EBF05B1363}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>0.8</v>
+      </c>
+      <c r="I2">
+        <v>0.9</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>367621</v>
+      </c>
+      <c r="C3">
+        <v>339450</v>
+      </c>
+      <c r="D3">
+        <v>327334</v>
+      </c>
+      <c r="E3">
+        <v>321450</v>
+      </c>
+      <c r="F3">
+        <v>317471</v>
+      </c>
+      <c r="G3">
+        <v>315447</v>
+      </c>
+      <c r="H3">
+        <v>314472</v>
+      </c>
+      <c r="I3">
+        <v>314177</v>
+      </c>
+      <c r="J3">
+        <v>313449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.23253333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>434.92395499999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>343395</v>
+      </c>
+      <c r="C9">
+        <v>315948</v>
+      </c>
+      <c r="D9">
+        <v>304715</v>
+      </c>
+      <c r="E9">
+        <v>299569</v>
+      </c>
+      <c r="F9">
+        <v>296101</v>
+      </c>
+      <c r="G9">
+        <v>293252</v>
+      </c>
+      <c r="H9">
+        <v>291854</v>
+      </c>
+      <c r="I9">
+        <v>291171</v>
+      </c>
+      <c r="J9">
+        <v>290831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.27450611111111106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>872.31427270100005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>357908</v>
+      </c>
+      <c r="C15">
+        <v>328382</v>
+      </c>
+      <c r="D15">
+        <v>317406</v>
+      </c>
+      <c r="E15">
+        <v>311157</v>
+      </c>
+      <c r="F15">
+        <v>306586</v>
+      </c>
+      <c r="G15">
+        <v>303401</v>
+      </c>
+      <c r="H15">
+        <v>301189</v>
+      </c>
+      <c r="I15">
+        <v>300447</v>
+      </c>
+      <c r="J15">
+        <v>299929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.25438259259259255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>306.94403419899999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>365045</v>
+      </c>
+      <c r="C21">
+        <v>334416</v>
+      </c>
+      <c r="D21">
+        <v>324755</v>
+      </c>
+      <c r="E21">
+        <v>320451</v>
+      </c>
+      <c r="F21">
+        <v>317473</v>
+      </c>
+      <c r="G21">
+        <v>315799</v>
+      </c>
+      <c r="H21">
+        <v>315032</v>
+      </c>
+      <c r="I21">
+        <v>314445</v>
+      </c>
+      <c r="J21">
+        <v>313914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.23421407407407407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>493.26277979999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.6</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
+      </c>
+      <c r="H26">
+        <v>0.8</v>
+      </c>
+      <c r="I26">
+        <v>0.9</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>364624</v>
+      </c>
+      <c r="C27">
+        <v>333728</v>
+      </c>
+      <c r="D27">
+        <v>321043</v>
+      </c>
+      <c r="E27">
+        <v>314789</v>
+      </c>
+      <c r="F27">
+        <v>311095</v>
+      </c>
+      <c r="G27">
+        <v>309549</v>
+      </c>
+      <c r="H27">
+        <v>308904</v>
+      </c>
+      <c r="I27">
+        <v>308742</v>
+      </c>
+      <c r="J27">
+        <v>308020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.24286777777777779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>233.512738399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742948FD-71BE-4D1D-9C08-5B14496C0EEA}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>0.8</v>
+      </c>
+      <c r="I2">
+        <v>0.9</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>350006</v>
+      </c>
+      <c r="C3">
+        <v>321088</v>
+      </c>
+      <c r="D3">
+        <v>309894</v>
+      </c>
+      <c r="E3">
+        <v>304751</v>
+      </c>
+      <c r="F3">
+        <v>302829</v>
+      </c>
+      <c r="G3">
+        <v>301548</v>
+      </c>
+      <c r="H3">
+        <v>300776</v>
+      </c>
+      <c r="I3">
+        <v>300603</v>
+      </c>
+      <c r="J3">
+        <v>300603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.26061092592592588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>632.41558159900001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>343088</v>
+      </c>
+      <c r="C9">
+        <v>315891</v>
+      </c>
+      <c r="D9">
+        <v>304924</v>
+      </c>
+      <c r="E9">
+        <v>300805</v>
+      </c>
+      <c r="F9">
+        <v>298178</v>
+      </c>
+      <c r="G9">
+        <v>296364</v>
+      </c>
+      <c r="H9">
+        <v>295001</v>
+      </c>
+      <c r="I9">
+        <v>294561</v>
+      </c>
+      <c r="J9">
+        <v>293985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.27096629629629626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>531.92877850000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>354198</v>
+      </c>
+      <c r="C15">
+        <v>328622</v>
+      </c>
+      <c r="D15">
+        <v>315607</v>
+      </c>
+      <c r="E15">
+        <v>310307</v>
+      </c>
+      <c r="F15">
+        <v>307103</v>
+      </c>
+      <c r="G15">
+        <v>304996</v>
+      </c>
+      <c r="H15">
+        <v>303498</v>
+      </c>
+      <c r="I15">
+        <v>303146</v>
+      </c>
+      <c r="J15">
+        <v>302225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.25334685185185185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>331.37321850000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>350306</v>
+      </c>
+      <c r="C21">
+        <v>324366</v>
+      </c>
+      <c r="D21">
+        <v>310556</v>
+      </c>
+      <c r="E21">
+        <v>303773</v>
+      </c>
+      <c r="F21">
+        <v>299666</v>
+      </c>
+      <c r="G21">
+        <v>297049</v>
+      </c>
+      <c r="H21">
+        <v>295209</v>
+      </c>
+      <c r="I21">
+        <v>294438</v>
+      </c>
+      <c r="J21">
+        <v>294251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.2659509259259259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>531.48723470000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.6</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
+      </c>
+      <c r="H26">
+        <v>0.8</v>
+      </c>
+      <c r="I26">
+        <v>0.9</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>348511</v>
+      </c>
+      <c r="C27">
+        <v>322130</v>
+      </c>
+      <c r="D27">
+        <v>310505</v>
+      </c>
+      <c r="E27">
+        <v>304301</v>
+      </c>
+      <c r="F27">
+        <v>300256</v>
+      </c>
+      <c r="G27">
+        <v>297618</v>
+      </c>
+      <c r="H27">
+        <v>295603</v>
+      </c>
+      <c r="I27">
+        <v>294924</v>
+      </c>
+      <c r="J27">
+        <v>294310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.26620962962962957</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>386.12933930100002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F98C17-A524-4AD9-BE6C-529F6318AC49}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>0.7</v>
+      </c>
+      <c r="H2">
+        <v>0.8</v>
+      </c>
+      <c r="I2">
+        <v>0.9</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>334658</v>
+      </c>
+      <c r="C3">
+        <v>310492</v>
+      </c>
+      <c r="D3">
+        <v>301879</v>
+      </c>
+      <c r="E3">
+        <v>298074</v>
+      </c>
+      <c r="F3">
+        <v>295260</v>
+      </c>
+      <c r="G3">
+        <v>292719</v>
+      </c>
+      <c r="H3">
+        <v>291378</v>
+      </c>
+      <c r="I3">
+        <v>290575</v>
+      </c>
+      <c r="J3">
+        <v>289242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.27897796296296296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>481.09638389999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>344980</v>
+      </c>
+      <c r="C9">
+        <v>319385</v>
+      </c>
+      <c r="D9">
+        <v>311710</v>
+      </c>
+      <c r="E9">
+        <v>307695</v>
+      </c>
+      <c r="F9">
+        <v>304651</v>
+      </c>
+      <c r="G9">
+        <v>302239</v>
+      </c>
+      <c r="H9">
+        <v>300678</v>
+      </c>
+      <c r="I9">
+        <v>300302</v>
+      </c>
+      <c r="J9">
+        <v>299580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.26096296296296295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>463.51056130000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.4</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>348526</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>310250</v>
+      </c>
+      <c r="E15">
+        <v>305976</v>
+      </c>
+      <c r="F15">
+        <v>303463</v>
+      </c>
+      <c r="G15">
+        <v>301444</v>
+      </c>
+      <c r="H15">
+        <v>300327</v>
+      </c>
+      <c r="I15">
+        <v>299797</v>
+      </c>
+      <c r="J15">
+        <v>298831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.25630166666666665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>470.5047793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.6</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>348732</v>
+      </c>
+      <c r="C21">
+        <v>323661</v>
+      </c>
+      <c r="D21">
+        <v>315252</v>
+      </c>
+      <c r="E21">
+        <v>312137</v>
+      </c>
+      <c r="F21">
+        <v>310295</v>
+      </c>
+      <c r="G21">
+        <v>308385</v>
+      </c>
+      <c r="H21">
+        <v>307564</v>
+      </c>
+      <c r="I21">
+        <v>307086</v>
+      </c>
+      <c r="J21">
+        <v>305841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.25096407407407401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>443.76425669999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.6</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
+      </c>
+      <c r="H26">
+        <v>0.8</v>
+      </c>
+      <c r="I26">
+        <v>0.9</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>354855</v>
+      </c>
+      <c r="C27">
+        <v>326106</v>
+      </c>
+      <c r="D27">
+        <v>315432</v>
+      </c>
+      <c r="E27">
+        <v>313014</v>
+      </c>
+      <c r="F27">
+        <v>311192</v>
+      </c>
+      <c r="G27">
+        <v>309809</v>
+      </c>
+      <c r="H27">
+        <v>308965</v>
+      </c>
+      <c r="I27">
+        <v>308624</v>
+      </c>
+      <c r="J27">
+        <v>308120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.24736351851851851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>467.04407180099997</v>
       </c>
     </row>
   </sheetData>
